--- a/Documentação/Requisitos.xlsx
+++ b/Documentação/Requisitos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaviT\Desktop\BandTec\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Digital-Time\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151AB277-E67A-494C-9646-412E0D25A885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="siatema" sheetId="1" r:id="rId1"/>
+    <sheet name="sistema" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>Classificação</t>
   </si>
@@ -126,9 +127,6 @@
     <t>RF8:</t>
   </si>
   <si>
-    <t>RF9:</t>
-  </si>
-  <si>
     <t>RF10:</t>
   </si>
   <si>
@@ -154,12 +152,39 @@
   </si>
   <si>
     <t>RNF18:</t>
+  </si>
+  <si>
+    <t>RNF9:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desenvolver o site responsivo </t>
+  </si>
+  <si>
+    <t>RF19</t>
+  </si>
+  <si>
+    <t>desenvolvimento deve ser feito com node.js</t>
+  </si>
+  <si>
+    <t>RNF20</t>
+  </si>
+  <si>
+    <t>Senhas deve ser criptografadas</t>
+  </si>
+  <si>
+    <t>RNF21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminar o site </t>
+  </si>
+  <si>
+    <t>finaliza a modelagem do banco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +706,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
@@ -693,7 +718,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -705,7 +730,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -717,7 +742,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -729,7 +754,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -741,7 +766,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -753,7 +778,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
@@ -765,7 +790,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -777,7 +802,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -789,7 +814,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -803,4 +828,294 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="155.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>